--- a/data/trans_dic/ProblemasDormirP33b-Clase-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas para dormir a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1748</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1251</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1474</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1243</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1495</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2624</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1105</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1776</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1526</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1646</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1664</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1252</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1375</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4080</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1260</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1513</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1964</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1310</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1563</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/ProblemasDormirP33b-Clase-trans_dic.xlsx
+++ b/data/trans_dic/ProblemasDormirP33b-Clase-trans_dic.xlsx
@@ -557,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,63%</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>10,36; 16,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>13,39; 19,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>12,54; 16,82</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,84%</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>8,12; 13,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>14,2; 20,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>11,88; 16,26</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,24%</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>3,35; 16,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>21,64; 32,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,62; 19,45</t>
         </is>
       </c>
     </row>
@@ -707,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,22%</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>12,59; 17,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,65; 18,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>10,15; 16,47</t>
         </is>
       </c>
     </row>
@@ -757,17 +757,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,75%</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>9,39; 14,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>17,98; 28,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>16,14; 22,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -807,17 +807,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,45%</t>
         </is>
       </c>
     </row>
@@ -830,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>4,07; 16,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>19,12; 23,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>16,28; 20,78</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,77%</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,46; 13,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,61; 21,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>13,74; 17,15</t>
         </is>
       </c>
     </row>
@@ -1002,17 +1002,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>113</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>187</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1025,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66917</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>72459</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>139376</t>
         </is>
       </c>
     </row>
@@ -1048,17 +1048,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1748</t>
+          <t>52339; 83670</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 1251</t>
+          <t>59915; 87181</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0; 1474</t>
+          <t>119481; 160212</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -1098,17 +1098,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49235</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66261</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115496</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1801</t>
+          <t>36708; 62781</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1243</t>
+          <t>54344; 79453</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1495</t>
+          <t>99146; 135712</t>
         </is>
       </c>
     </row>
@@ -1148,17 +1148,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>162</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1171,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66338</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44268</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110606</t>
         </is>
       </c>
     </row>
@@ -1194,17 +1194,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0; 2624</t>
+          <t>22418; 110008</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0; 1105</t>
+          <t>36116; 53572</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0; 2061</t>
+          <t>46901; 162411</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>221</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>404</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1244,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>151724</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>134541</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>286265</t>
         </is>
       </c>
     </row>
@@ -1267,17 +1267,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1776</t>
+          <t>130295; 176041</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1526</t>
+          <t>65067; 179460</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1646</t>
+          <t>204343; 331606</t>
         </is>
       </c>
     </row>
@@ -1294,17 +1294,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>358</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>433</t>
         </is>
       </c>
     </row>
@@ -1317,17 +1317,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56260</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>203675</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>259935</t>
         </is>
       </c>
     </row>
@@ -1340,24 +1340,24 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0; 1664</t>
+          <t>44592; 70639</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0; 1252</t>
+          <t>151303; 236837</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0; 1375</t>
+          <t>212454; 291100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -1367,17 +1367,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>287</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>301</t>
         </is>
       </c>
     </row>
@@ -1390,17 +1390,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20644</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164194</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>184838</t>
         </is>
       </c>
     </row>
@@ -1413,17 +1413,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 4080</t>
+          <t>9780; 39731</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 1260</t>
+          <t>145563; 181825</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1513</t>
+          <t>163057; 208218</t>
         </is>
       </c>
     </row>
@@ -1440,17 +1440,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1649</t>
         </is>
       </c>
     </row>
@@ -1463,17 +1463,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>411117</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>685397</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1096515</t>
         </is>
       </c>
     </row>
@@ -1486,17 +1486,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0; 1964</t>
+          <t>319437; 457600</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0; 1310</t>
+          <t>558339; 752079</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0; 1563</t>
+          <t>955790; 1192808</t>
         </is>
       </c>
     </row>
